--- a/viettel_ns/Report_ExcelFrom/VonDauTu/rpt_GiayDeNghiCoQuanThanhToan_ThanhToan.xlsx
+++ b/viettel_ns/Report_ExcelFrom/VonDauTu/rpt_GiayDeNghiCoQuanThanhToan_ThanhToan.xlsx
@@ -101,9 +101,6 @@
     <t>Thuộc nguồn vốn: (NSNN, CTMT; NSQP;….) &lt;#NguonVon&gt;</t>
   </si>
   <si>
-    <t>Mã dự án đầu tư: &lt;#MaDuAn&gt;</t>
-  </si>
-  <si>
     <t>Năm: &lt;#NamKeHoach&gt;)</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
     <t>&lt;#TieuDe1;GIẤY ĐỀ NGHỊ THANH TOÁN VỐN&gt;</t>
   </si>
   <si>
-    <t>&lt;#FormatNumber(&lt;#FTongThanhToan&gt; )&gt; &lt;#DonViTinh&gt;</t>
-  </si>
-  <si>
     <t>Trong đó:   - Thu hồi tạm ứng (bằng số): &lt;#FormatNumber(&lt;#FThuHoiTamUng&gt;)&gt; &lt;#DonViTinh&gt;</t>
   </si>
   <si>
@@ -299,6 +293,12 @@
   </si>
   <si>
     <t xml:space="preserve">                      + Vốn ngoài nước: &lt;#FormatNumber(&lt;#ThuHuongNN&gt;)&gt; &lt;#DonViTinh&gt;</t>
+  </si>
+  <si>
+    <t>Mã dự án đầu tư: …</t>
+  </si>
+  <si>
+    <t>&lt;#FormatNumber(&lt;#FTongThanhToan&gt;)&gt; &lt;#DonViTinh&gt;</t>
   </si>
 </sst>
 </file>
@@ -857,85 +857,85 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2605,8 +2605,8 @@
   </sheetPr>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15"/>
@@ -2633,47 +2633,47 @@
     </row>
     <row r="2" spans="1:8" ht="16.5">
       <c r="A2" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="26"/>
-      <c r="C2" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="C2" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="C3" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:8" ht="23.25" customHeight="1">
       <c r="A4" s="27" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A5" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
+      <c r="A5" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
     </row>
@@ -2681,14 +2681,14 @@
       <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15.75">
-      <c r="A7" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="A7" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="1"/>
@@ -2705,14 +2705,14 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="1"/>
@@ -2725,7 +2725,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="49"/>
       <c r="D11" s="49"/>
@@ -2736,17 +2736,17 @@
       <c r="A12" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
+      <c r="B12" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="45"/>
       <c r="C15" s="45"/>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" hidden="1">
       <c r="A17" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75">
       <c r="A19" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="51"/>
       <c r="C19" s="52"/>
@@ -2853,7 +2853,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2865,28 +2865,28 @@
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
     </row>
     <row r="25" spans="1:8" ht="57.75" customHeight="1">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="83"/>
-      <c r="E25" s="82" t="s">
+      <c r="D25" s="64"/>
+      <c r="E25" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="83"/>
+      <c r="F25" s="64"/>
     </row>
     <row r="26" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A26" s="81"/>
-      <c r="B26" s="81"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="40" t="s">
         <v>14</v>
       </c>
@@ -2902,26 +2902,26 @@
     </row>
     <row r="27" spans="1:8" ht="15.75">
       <c r="A27" s="41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="D27" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="E27" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="F27" s="42" t="s">
         <v>63</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>64</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75">
@@ -2929,30 +2929,30 @@
         <v>16</v>
       </c>
       <c r="B28" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="D28" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="E28" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="F28" s="44" t="s">
         <v>63</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>64</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="56" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="33"/>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="32" spans="1:8" ht="17.25">
       <c r="A32" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2989,48 +2989,48 @@
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="16.5">
-      <c r="A33" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="78"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
+      <c r="A33" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="58"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:10" ht="16.5">
-      <c r="A34" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
+      <c r="A34" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="58"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
     </row>
     <row r="35" spans="1:10" ht="16.5">
       <c r="A35" s="45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" s="45"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
     </row>
     <row r="36" spans="1:10" ht="16.5">
-      <c r="A36" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
+      <c r="A36" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:10" ht="16.5">
       <c r="A37" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3040,43 +3040,43 @@
     </row>
     <row r="38" spans="1:10" ht="16.5">
       <c r="A38" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
     </row>
     <row r="39" spans="1:10" ht="16.5">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
     </row>
     <row r="40" spans="1:10" ht="16.5">
       <c r="A40" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" s="46"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
     </row>
     <row r="41" spans="1:10" ht="16.5">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="71"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
     </row>
@@ -3097,24 +3097,24 @@
       <c r="F43" s="36"/>
     </row>
     <row r="44" spans="1:10" ht="16.5">
-      <c r="A44" s="66"/>
-      <c r="B44" s="66"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="70"/>
       <c r="C44" s="37"/>
-      <c r="D44" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
+      <c r="D44" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
     </row>
     <row r="45" spans="1:10" ht="17.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="64"/>
+      <c r="A45" s="78"/>
+      <c r="B45" s="79"/>
       <c r="C45" s="37"/>
-      <c r="D45" s="65" t="s">
+      <c r="D45" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
     </row>
     <row r="46" spans="1:10" ht="17.25">
       <c r="A46" s="38"/>
@@ -3128,22 +3128,22 @@
       <c r="A47" s="38"/>
       <c r="B47" s="39"/>
       <c r="C47" s="37"/>
-      <c r="D47" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
+      <c r="D47" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1">
       <c r="A48" s="30"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
@@ -3151,11 +3151,11 @@
     </row>
     <row r="49" spans="1:10" ht="16.5">
       <c r="A49" s="31"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
       <c r="G49" s="24"/>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
@@ -3163,11 +3163,11 @@
     </row>
     <row r="50" spans="1:10" ht="16.5">
       <c r="A50" s="32"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="81"/>
       <c r="G50" s="25"/>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
@@ -3199,11 +3199,11 @@
     </row>
     <row r="54" spans="1:10" ht="16.5">
       <c r="A54" s="31"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
       <c r="G54" s="24"/>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
@@ -3219,6 +3219,31 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A33:B33"/>
@@ -3229,31 +3254,6 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B54:C54"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -3983,78 +3983,78 @@
   <sheetData>
     <row r="1" spans="1:14" s="9" customFormat="1" ht="18.75">
       <c r="A1" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="H8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="10"/>
       <c r="M8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" ht="25.5">
       <c r="A9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="M9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="N9" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="H10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="M10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="N10" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:14">

--- a/viettel_ns/Report_ExcelFrom/VonDauTu/rpt_GiayDeNghiCoQuanThanhToan_ThanhToan.xlsx
+++ b/viettel_ns/Report_ExcelFrom/VonDauTu/rpt_GiayDeNghiCoQuanThanhToan_ThanhToan.xlsx
@@ -852,20 +852,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -881,62 +935,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2606,7 +2606,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15"/>
@@ -2636,44 +2636,44 @@
         <v>58</v>
       </c>
       <c r="B2" s="26"/>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="28" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="1:8" ht="23.25" customHeight="1">
       <c r="A4" s="27" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
     </row>
@@ -2681,14 +2681,14 @@
       <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15.75">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="1"/>
@@ -2736,13 +2736,13 @@
       <c r="A12" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="45" t="s">
@@ -2831,10 +2831,10 @@
       <c r="B21" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="55"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
@@ -2865,28 +2865,28 @@
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
     </row>
     <row r="25" spans="1:8" ht="57.75" customHeight="1">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="63" t="s">
+      <c r="D25" s="82"/>
+      <c r="E25" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="64"/>
+      <c r="F25" s="82"/>
     </row>
     <row r="26" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="80"/>
       <c r="C26" s="40" t="s">
         <v>14</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>57</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="55" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="1"/>
@@ -2989,22 +2989,22 @@
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="16.5">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:10" ht="16.5">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
     </row>
@@ -3013,18 +3013,18 @@
         <v>72</v>
       </c>
       <c r="B35" s="45"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
     </row>
     <row r="36" spans="1:10" ht="16.5">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
     </row>
@@ -3043,8 +3043,8 @@
         <v>75</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
     </row>
@@ -3053,8 +3053,8 @@
         <v>76</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
     </row>
@@ -3063,20 +3063,20 @@
         <v>26</v>
       </c>
       <c r="B40" s="46"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
     </row>
     <row r="41" spans="1:10" ht="16.5">
-      <c r="A41" s="74" t="s">
+      <c r="A41" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74" t="s">
+      <c r="B41" s="70"/>
+      <c r="C41" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="74"/>
+      <c r="D41" s="70"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
     </row>
@@ -3097,24 +3097,24 @@
       <c r="F43" s="36"/>
     </row>
     <row r="44" spans="1:10" ht="16.5">
-      <c r="A44" s="70"/>
-      <c r="B44" s="70"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
       <c r="C44" s="37"/>
-      <c r="D44" s="71" t="s">
+      <c r="D44" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
     </row>
     <row r="45" spans="1:10" ht="17.25">
-      <c r="A45" s="78"/>
-      <c r="B45" s="79"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="37"/>
-      <c r="D45" s="80" t="s">
+      <c r="D45" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
     </row>
     <row r="46" spans="1:10" ht="17.25">
       <c r="A46" s="38"/>
@@ -3128,22 +3128,22 @@
       <c r="A47" s="38"/>
       <c r="B47" s="39"/>
       <c r="C47" s="37"/>
-      <c r="D47" s="75" t="s">
+      <c r="D47" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1">
       <c r="A48" s="30"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
@@ -3151,11 +3151,11 @@
     </row>
     <row r="49" spans="1:10" ht="16.5">
       <c r="A49" s="31"/>
-      <c r="B49" s="83"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
       <c r="G49" s="24"/>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
@@ -3163,11 +3163,11 @@
     </row>
     <row r="50" spans="1:10" ht="16.5">
       <c r="A50" s="32"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
       <c r="G50" s="25"/>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
@@ -3199,11 +3199,11 @@
     </row>
     <row r="54" spans="1:10" ht="16.5">
       <c r="A54" s="31"/>
-      <c r="B54" s="83"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
       <c r="G54" s="24"/>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
@@ -3219,31 +3219,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A33:B33"/>
@@ -3254,6 +3229,31 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B54:C54"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
